--- a/fitting_results/fitting_results(advanced_models, LRCM, target_LDMI).xlsx
+++ b/fitting_results/fitting_results(advanced_models, LRCM, target_LDMI).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\fitting_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E468A-A28B-4B1A-B5BA-7F13BC90E0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401FA3B-3F50-48A2-ABA0-28B66DD5648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>method</t>
   </si>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>SIGMOID</t>
-  </si>
-  <si>
-    <t>Avg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,15 +642,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F10">
-        <f>AVERAGE(F2:F9)</f>
-        <v>5.7920993594466029E-2</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
